--- a/input.xlsx
+++ b/input.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ada77a5fc8572b24/Pulpit/Studia/transformacje_grafowe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23BFCE51-9DC1-444E-8C84-CE49932FC55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="8_{23BFCE51-9DC1-444E-8C84-CE49932FC55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343CAEE4-6EA1-4547-8CC7-32E5C48BDE28}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -106,6 +106,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -405,15 +409,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,36 +430,62 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ada77a5fc8572b24/Pulpit/Studia/transformacje_grafowe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\SinglePushOut-project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{23BFCE51-9DC1-444E-8C84-CE49932FC55D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{343CAEE4-6EA1-4547-8CC7-32E5C48BDE28}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AADD0139-7E89-46BB-A761-FEA5CA60F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5436" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="7">
   <si>
     <t>A</t>
   </si>
@@ -106,10 +106,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -401,7 +397,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -409,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,62 +426,36 @@
       <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
       <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
       </c>
-      <c r="D3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="C4" t="s">
         <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="E6" t="s">
         <v>3</v>
       </c>
     </row>
